--- a/Code/Results/Cases/Case_5_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.466969820089844</v>
+        <v>1.426125737049745</v>
       </c>
       <c r="C2">
-        <v>0.4993109694940756</v>
+        <v>0.2716980152002861</v>
       </c>
       <c r="D2">
-        <v>0.04764942944787975</v>
+        <v>0.02815277586733345</v>
       </c>
       <c r="E2">
-        <v>0.0370205814047857</v>
+        <v>0.09735005301325117</v>
       </c>
       <c r="F2">
-        <v>0.5174241791117922</v>
+        <v>0.7404525498735524</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.326357030250449</v>
+        <v>0.2186133324869957</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.466546078335739</v>
+        <v>2.545324754224538</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.012298965723232</v>
+        <v>1.287646044420967</v>
       </c>
       <c r="C3">
-        <v>0.4546130535561588</v>
+        <v>0.2566188330006582</v>
       </c>
       <c r="D3">
-        <v>0.04341388752878572</v>
+        <v>0.02670168647993165</v>
       </c>
       <c r="E3">
-        <v>0.03778720887610731</v>
+        <v>0.09856702563679853</v>
       </c>
       <c r="F3">
-        <v>0.4821470636321479</v>
+        <v>0.7407862203640079</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2859591919865352</v>
+        <v>0.2082890078713007</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.401372605542292</v>
+        <v>2.562567931480714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.733932182260617</v>
+        <v>1.202640181683364</v>
       </c>
       <c r="C4">
-        <v>0.4272211419687437</v>
+        <v>0.2473352152662471</v>
       </c>
       <c r="D4">
-        <v>0.04081776959103678</v>
+        <v>0.02580839362496334</v>
       </c>
       <c r="E4">
-        <v>0.03837057258371601</v>
+        <v>0.09937666743672935</v>
       </c>
       <c r="F4">
-        <v>0.4620574009641558</v>
+        <v>0.7416464198107562</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2614307034018566</v>
+        <v>0.202049473344843</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.366643616930446</v>
+        <v>2.575409500003786</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.620645312709485</v>
+        <v>1.168006751467374</v>
       </c>
       <c r="C5">
-        <v>0.4160681560219643</v>
+        <v>0.2435460889232388</v>
       </c>
       <c r="D5">
-        <v>0.0397605910609613</v>
+        <v>0.02544381431792431</v>
       </c>
       <c r="E5">
-        <v>0.03863550449301734</v>
+        <v>0.0997222891822922</v>
       </c>
       <c r="F5">
-        <v>0.4542398427989269</v>
+        <v>0.742161351776808</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2514968424036681</v>
+        <v>0.1995319262775155</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.353739008975424</v>
+        <v>2.581207977441551</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.601841711303678</v>
+        <v>1.162256382370003</v>
       </c>
       <c r="C6">
-        <v>0.4142166752649246</v>
+        <v>0.2429165551416475</v>
       </c>
       <c r="D6">
-        <v>0.03958508294110175</v>
+        <v>0.02538324349009713</v>
       </c>
       <c r="E6">
-        <v>0.03868110776383737</v>
+        <v>0.09978062655603814</v>
       </c>
       <c r="F6">
-        <v>0.4529633109030584</v>
+        <v>0.7422567732847298</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.249850842702358</v>
+        <v>0.1991154080678683</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.351669259898557</v>
+        <v>2.58220491995786</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.732403815391308</v>
+        <v>1.202173071766651</v>
       </c>
       <c r="C7">
-        <v>0.427070695517898</v>
+        <v>0.2472841375883092</v>
       </c>
       <c r="D7">
-        <v>0.04080350950532363</v>
+        <v>0.02580347899287716</v>
       </c>
       <c r="E7">
-        <v>0.03837403682870288</v>
+        <v>0.09938126511155332</v>
       </c>
       <c r="F7">
-        <v>0.4619505090670017</v>
+        <v>0.7416526992634402</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2612964918964877</v>
+        <v>0.2020154190604018</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.366464633779543</v>
+        <v>2.57548541274511</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.310000075663481</v>
+        <v>1.378374569437199</v>
       </c>
       <c r="C8">
-        <v>0.4838857533289911</v>
+        <v>0.2665040599691224</v>
       </c>
       <c r="D8">
-        <v>0.04618783775553936</v>
+        <v>0.02765293741384767</v>
       </c>
       <c r="E8">
-        <v>0.03726084106529193</v>
+        <v>0.09775670556903471</v>
       </c>
       <c r="F8">
-        <v>0.5049186548522044</v>
+        <v>0.7404313483539795</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3123657945379676</v>
+        <v>0.2150328553357497</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.442926015501058</v>
+        <v>2.55080149997832</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.451623634090708</v>
+        <v>1.724012180240891</v>
       </c>
       <c r="C9">
-        <v>0.5959134569236824</v>
+        <v>0.3039854258960872</v>
       </c>
       <c r="D9">
-        <v>0.05680164221273287</v>
+        <v>0.03126030033718763</v>
       </c>
       <c r="E9">
-        <v>0.03602527784483733</v>
+        <v>0.09506657982693589</v>
       </c>
       <c r="F9">
-        <v>0.6028844618773448</v>
+        <v>0.7432548820247291</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4150782516098275</v>
+        <v>0.241349659559603</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.638767711956547</v>
+        <v>2.520347592924026</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.299810463813856</v>
+        <v>1.977961545731148</v>
       </c>
       <c r="C10">
-        <v>0.6788985258148443</v>
+        <v>0.3313838256891586</v>
       </c>
       <c r="D10">
-        <v>0.06466362970442674</v>
+        <v>0.03389769180528646</v>
       </c>
       <c r="E10">
-        <v>0.03577453203608805</v>
+        <v>0.09339282582797992</v>
       </c>
       <c r="F10">
-        <v>0.6850732750371691</v>
+        <v>0.748538571820788</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4926749428549897</v>
+        <v>0.2611670464069249</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.816531400697187</v>
+        <v>2.509009849006873</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.688696895780481</v>
+        <v>2.09348190978568</v>
       </c>
       <c r="C11">
-        <v>0.7168734398798904</v>
+        <v>0.3438155814336881</v>
       </c>
       <c r="D11">
-        <v>0.06826180863689757</v>
+        <v>0.03509449064593184</v>
       </c>
       <c r="E11">
-        <v>0.03582225326487354</v>
+        <v>0.09269723182196898</v>
       </c>
       <c r="F11">
-        <v>0.7251308949615662</v>
+        <v>0.7516451862771873</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5285778040563258</v>
+        <v>0.2702876302102482</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.906187581069076</v>
+        <v>2.506268740626041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.836483270028282</v>
+        <v>2.137224739684825</v>
       </c>
       <c r="C12">
-        <v>0.7312926469807621</v>
+        <v>0.3485183309733202</v>
       </c>
       <c r="D12">
-        <v>0.06962816740913524</v>
+        <v>0.03554723832923656</v>
       </c>
       <c r="E12">
-        <v>0.03586532975677059</v>
+        <v>0.09244330170096049</v>
       </c>
       <c r="F12">
-        <v>0.7407245408287508</v>
+        <v>0.7529231317852805</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5422726446232673</v>
+        <v>0.2737565190599156</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.941532808000119</v>
+        <v>2.505579824533129</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.804630092148614</v>
+        <v>2.127804067047634</v>
       </c>
       <c r="C13">
-        <v>0.7281853688681394</v>
+        <v>0.3475057317340031</v>
       </c>
       <c r="D13">
-        <v>0.06933371666353594</v>
+        <v>0.03544975164792419</v>
       </c>
       <c r="E13">
-        <v>0.03585491109821781</v>
+        <v>0.09249756842256218</v>
       </c>
       <c r="F13">
-        <v>0.7373465942457784</v>
+        <v>0.7526433804024464</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5393185945348336</v>
+        <v>0.2730087601340756</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.933856369419544</v>
+        <v>2.505712644077278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.700844356773814</v>
+        <v>2.097080713932883</v>
       </c>
       <c r="C14">
-        <v>0.7180588962404215</v>
+        <v>0.3442025790885452</v>
       </c>
       <c r="D14">
-        <v>0.06837413934105996</v>
+        <v>0.03513174772825067</v>
       </c>
       <c r="E14">
-        <v>0.0358252855703487</v>
+        <v>0.09267615084283776</v>
       </c>
       <c r="F14">
-        <v>0.7264050357970859</v>
+        <v>0.7517482861240268</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5297024237608099</v>
+        <v>0.2705727150446222</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.909066722084361</v>
+        <v>2.506205057842976</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.637343462266017</v>
+        <v>2.078261428250983</v>
       </c>
       <c r="C15">
-        <v>0.7118614169728801</v>
+        <v>0.3421786575931662</v>
       </c>
       <c r="D15">
-        <v>0.06778688772698871</v>
+        <v>0.03493690119242387</v>
       </c>
       <c r="E15">
-        <v>0.03581044960689717</v>
+        <v>0.09278677221847786</v>
       </c>
       <c r="F15">
-        <v>0.7197595940679804</v>
+        <v>0.7512132513722634</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5238255472157505</v>
+        <v>0.2690825347070529</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.894067995954259</v>
+        <v>2.506552183530147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.274464218721675</v>
+        <v>1.970411808117262</v>
       </c>
       <c r="C16">
-        <v>0.6764218483523052</v>
+        <v>0.3305707135031355</v>
       </c>
       <c r="D16">
-        <v>0.0644289741260522</v>
+        <v>0.03381941615469231</v>
       </c>
       <c r="E16">
-        <v>0.03577481454562381</v>
+        <v>0.09343960985674116</v>
       </c>
       <c r="F16">
-        <v>0.6825125443529885</v>
+        <v>0.7483497320056358</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4903417900409153</v>
+        <v>0.2605731139490786</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.810859933636834</v>
+        <v>2.509237749174559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.052687553823148</v>
+        <v>1.904247587643624</v>
       </c>
       <c r="C17">
-        <v>0.6547428720606945</v>
+        <v>0.3234412288711042</v>
       </c>
       <c r="D17">
-        <v>0.06237503034397918</v>
+        <v>0.03313309620906324</v>
       </c>
       <c r="E17">
-        <v>0.03579558633662927</v>
+        <v>0.09385696850501368</v>
       </c>
       <c r="F17">
-        <v>0.6603743904931747</v>
+        <v>0.7467734355434317</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4699637047708762</v>
+        <v>0.2553798542435288</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.762155221314913</v>
+        <v>2.511505312961702</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.925408214633933</v>
+        <v>1.866191555075147</v>
       </c>
       <c r="C18">
-        <v>0.6422944046415182</v>
+        <v>0.3193375514979664</v>
       </c>
       <c r="D18">
-        <v>0.06119565579067654</v>
+        <v>0.03273806580221361</v>
       </c>
       <c r="E18">
-        <v>0.03582264971722893</v>
+        <v>0.09410321523864162</v>
       </c>
       <c r="F18">
-        <v>0.6478897382791189</v>
+        <v>0.7459329384071367</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4582987930137108</v>
+        <v>0.2524027673105707</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.73496053837826</v>
+        <v>2.513036911941953</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.882359333888473</v>
+        <v>1.85330647257706</v>
       </c>
       <c r="C19">
-        <v>0.638082931624723</v>
+        <v>0.3179476130713965</v>
       </c>
       <c r="D19">
-        <v>0.06079666358604641</v>
+        <v>0.03260426852084919</v>
       </c>
       <c r="E19">
-        <v>0.03583435830514503</v>
+        <v>0.09418765340573465</v>
       </c>
       <c r="F19">
-        <v>0.6437041632844682</v>
+        <v>0.7456597078140987</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4543585161815713</v>
+        <v>0.2513964855610311</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.725889755402761</v>
+        <v>2.513594485067813</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.076266404334206</v>
+        <v>1.911290908205387</v>
       </c>
       <c r="C20">
-        <v>0.6570484469658879</v>
+        <v>0.3242004859288272</v>
       </c>
       <c r="D20">
-        <v>0.06259346449242287</v>
+        <v>0.03320618504430684</v>
       </c>
       <c r="E20">
-        <v>0.03579179852905945</v>
+        <v>0.09381189890598129</v>
       </c>
       <c r="F20">
-        <v>0.662705017892705</v>
+        <v>0.7469343858267337</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4721271021154365</v>
+        <v>0.2559316574052843</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.767254251279837</v>
+        <v>2.511240384834565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.731313810113704</v>
+        <v>2.106104982639408</v>
       </c>
       <c r="C21">
-        <v>0.7210321741341374</v>
+        <v>0.345172930058169</v>
       </c>
       <c r="D21">
-        <v>0.06865588135601541</v>
+        <v>0.03522516573077183</v>
       </c>
       <c r="E21">
-        <v>0.03583329408662728</v>
+        <v>0.09262343956701002</v>
       </c>
       <c r="F21">
-        <v>0.7296069679466655</v>
+        <v>0.7520084377834166</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5325241296604162</v>
+        <v>0.2712878305881503</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.91630910474467</v>
+        <v>2.506050937310846</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.162522315327067</v>
+        <v>2.233413424287846</v>
       </c>
       <c r="C22">
-        <v>0.7630796999951883</v>
+        <v>0.3588510172432109</v>
       </c>
       <c r="D22">
-        <v>0.07264057797319623</v>
+        <v>0.03654202706910326</v>
       </c>
       <c r="E22">
-        <v>0.0360070775169099</v>
+        <v>0.09190195369454557</v>
       </c>
       <c r="F22">
-        <v>0.7758282337592846</v>
+        <v>0.7559166693299488</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5725818778887657</v>
+        <v>0.281412092657277</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.021921402771625</v>
+        <v>2.504694788127921</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.932064324009787</v>
+        <v>2.165468388404918</v>
       </c>
       <c r="C23">
-        <v>0.7406146981488462</v>
+        <v>0.3515534802873503</v>
       </c>
       <c r="D23">
-        <v>0.07051156182752294</v>
+        <v>0.03583944580750398</v>
       </c>
       <c r="E23">
-        <v>0.0359002934304069</v>
+        <v>0.09228196525754839</v>
       </c>
       <c r="F23">
-        <v>0.7509161825290818</v>
+        <v>0.7537764548151671</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5511444127563152</v>
+        <v>0.2760005394595026</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.964758101215722</v>
+        <v>2.505231820633924</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.065605717774986</v>
+        <v>1.908106676857585</v>
       </c>
       <c r="C24">
-        <v>0.6560060501214764</v>
+        <v>0.3238572408721154</v>
       </c>
       <c r="D24">
-        <v>0.06249470590140049</v>
+        <v>0.03317314299945195</v>
       </c>
       <c r="E24">
-        <v>0.03579346402700878</v>
+        <v>0.09383225524345384</v>
       </c>
       <c r="F24">
-        <v>0.6616505878119057</v>
+        <v>0.7468614154691693</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4711488731151263</v>
+        <v>0.2556821604459003</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.764946478087523</v>
+        <v>2.511359448910099</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.141434515710216</v>
+        <v>1.630502460955199</v>
       </c>
       <c r="C25">
-        <v>0.5655115524905057</v>
+        <v>0.2938693232786136</v>
       </c>
       <c r="D25">
-        <v>0.05392146552893706</v>
+        <v>0.03028660745812317</v>
       </c>
       <c r="E25">
-        <v>0.03625024326310289</v>
+        <v>0.09574121442087424</v>
       </c>
       <c r="F25">
-        <v>0.5747314318317507</v>
+        <v>0.7419294698460845</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3869609925295237</v>
+        <v>0.2341456260844126</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.580291686511572</v>
+        <v>2.526654732982195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.426125737049745</v>
+        <v>3.466969820089901</v>
       </c>
       <c r="C2">
-        <v>0.2716980152002861</v>
+        <v>0.4993109694942177</v>
       </c>
       <c r="D2">
-        <v>0.02815277586733345</v>
+        <v>0.04764942944781581</v>
       </c>
       <c r="E2">
-        <v>0.09735005301325117</v>
+        <v>0.03702058140479814</v>
       </c>
       <c r="F2">
-        <v>0.7404525498735524</v>
+        <v>0.5174241791118064</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2186133324869957</v>
+        <v>0.3263570302504775</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.545324754224538</v>
+        <v>1.466546078335824</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.287646044420967</v>
+        <v>3.012298965723346</v>
       </c>
       <c r="C3">
-        <v>0.2566188330006582</v>
+        <v>0.4546130535561019</v>
       </c>
       <c r="D3">
-        <v>0.02670168647993165</v>
+        <v>0.04341388752899888</v>
       </c>
       <c r="E3">
-        <v>0.09856702563679853</v>
+        <v>0.03778720887609666</v>
       </c>
       <c r="F3">
-        <v>0.7407862203640079</v>
+        <v>0.4821470636321479</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2082890078713007</v>
+        <v>0.285959191986592</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.562567931480714</v>
+        <v>1.401372605542264</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.202640181683364</v>
+        <v>2.733932182260844</v>
       </c>
       <c r="C4">
-        <v>0.2473352152662471</v>
+        <v>0.4272211419686585</v>
       </c>
       <c r="D4">
-        <v>0.02580839362496334</v>
+        <v>0.04081776959091599</v>
       </c>
       <c r="E4">
-        <v>0.09937666743672935</v>
+        <v>0.03837057258370358</v>
       </c>
       <c r="F4">
-        <v>0.7416464198107562</v>
+        <v>0.4620574009641629</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.202049473344843</v>
+        <v>0.2614307034018992</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.575409500003786</v>
+        <v>1.366643616930361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.168006751467374</v>
+        <v>2.620645312709598</v>
       </c>
       <c r="C5">
-        <v>0.2435460889232388</v>
+        <v>0.4160681560218791</v>
       </c>
       <c r="D5">
-        <v>0.02544381431792431</v>
+        <v>0.03976059106106788</v>
       </c>
       <c r="E5">
-        <v>0.0997222891822922</v>
+        <v>0.03863550449299957</v>
       </c>
       <c r="F5">
-        <v>0.742161351776808</v>
+        <v>0.4542398427989269</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1995319262775155</v>
+        <v>0.2514968424037107</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.581207977441551</v>
+        <v>1.353739008975481</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.162256382370003</v>
+        <v>2.601841711303564</v>
       </c>
       <c r="C6">
-        <v>0.2429165551416475</v>
+        <v>0.414216675264953</v>
       </c>
       <c r="D6">
-        <v>0.02538324349009713</v>
+        <v>0.03958508294097385</v>
       </c>
       <c r="E6">
-        <v>0.09978062655603814</v>
+        <v>0.03868110776382139</v>
       </c>
       <c r="F6">
-        <v>0.7422567732847298</v>
+        <v>0.4529633109030584</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1991154080678683</v>
+        <v>0.2498508427024007</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.58220491995786</v>
+        <v>1.351669259898586</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.202173071766651</v>
+        <v>2.732403815391422</v>
       </c>
       <c r="C7">
-        <v>0.2472841375883092</v>
+        <v>0.4270706955180117</v>
       </c>
       <c r="D7">
-        <v>0.02580347899287716</v>
+        <v>0.04080350950549416</v>
       </c>
       <c r="E7">
-        <v>0.09938126511155332</v>
+        <v>0.03837403682870821</v>
       </c>
       <c r="F7">
-        <v>0.7416526992634402</v>
+        <v>0.4619505090669875</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2020154190604018</v>
+        <v>0.2612964918963883</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.57548541274511</v>
+        <v>1.366464633779515</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.378374569437199</v>
+        <v>3.310000075663766</v>
       </c>
       <c r="C8">
-        <v>0.2665040599691224</v>
+        <v>0.4838857533289627</v>
       </c>
       <c r="D8">
-        <v>0.02765293741384767</v>
+        <v>0.04618783775554647</v>
       </c>
       <c r="E8">
-        <v>0.09775670556903471</v>
+        <v>0.03726084106529726</v>
       </c>
       <c r="F8">
-        <v>0.7404313483539795</v>
+        <v>0.5049186548521902</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2150328553357497</v>
+        <v>0.3123657945380387</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.55080149997832</v>
+        <v>1.442926015501058</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.724012180240891</v>
+        <v>4.451623634090765</v>
       </c>
       <c r="C9">
-        <v>0.3039854258960872</v>
+        <v>0.5959134569237108</v>
       </c>
       <c r="D9">
-        <v>0.03126030033718763</v>
+        <v>0.05680164221278972</v>
       </c>
       <c r="E9">
-        <v>0.09506657982693589</v>
+        <v>0.03602527784481957</v>
       </c>
       <c r="F9">
-        <v>0.7432548820247291</v>
+        <v>0.6028844618773519</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.241349659559603</v>
+        <v>0.4150782516099127</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.520347592924026</v>
+        <v>1.638767711956575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.977961545731148</v>
+        <v>5.299810463813799</v>
       </c>
       <c r="C10">
-        <v>0.3313838256891586</v>
+        <v>0.678898525814617</v>
       </c>
       <c r="D10">
-        <v>0.03389769180528646</v>
+        <v>0.06466362970442674</v>
       </c>
       <c r="E10">
-        <v>0.09339282582797992</v>
+        <v>0.03577453203611292</v>
       </c>
       <c r="F10">
-        <v>0.748538571820788</v>
+        <v>0.6850732750371691</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2611670464069249</v>
+        <v>0.4926749428551318</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.509009849006873</v>
+        <v>1.816531400697187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.09348190978568</v>
+        <v>5.688696895780481</v>
       </c>
       <c r="C11">
-        <v>0.3438155814336881</v>
+        <v>0.7168734398798904</v>
       </c>
       <c r="D11">
-        <v>0.03509449064593184</v>
+        <v>0.06826180863690468</v>
       </c>
       <c r="E11">
-        <v>0.09269723182196898</v>
+        <v>0.03582225326488775</v>
       </c>
       <c r="F11">
-        <v>0.7516451862771873</v>
+        <v>0.7251308949615662</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2702876302102482</v>
+        <v>0.5285778040561695</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.506268740626041</v>
+        <v>1.906187581069133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.137224739684825</v>
+        <v>5.836483270028054</v>
       </c>
       <c r="C12">
-        <v>0.3485183309733202</v>
+        <v>0.7312926469807906</v>
       </c>
       <c r="D12">
-        <v>0.03554723832923656</v>
+        <v>0.06962816740909261</v>
       </c>
       <c r="E12">
-        <v>0.09244330170096049</v>
+        <v>0.03586532975678836</v>
       </c>
       <c r="F12">
-        <v>0.7529231317852805</v>
+        <v>0.7407245408287508</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2737565190599156</v>
+        <v>0.5422726446232957</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.505579824533129</v>
+        <v>1.94153280800009</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.127804067047634</v>
+        <v>5.804630092148443</v>
       </c>
       <c r="C13">
-        <v>0.3475057317340031</v>
+        <v>0.7281853688681963</v>
       </c>
       <c r="D13">
-        <v>0.03544975164792419</v>
+        <v>0.06933371666353594</v>
       </c>
       <c r="E13">
-        <v>0.09249756842256218</v>
+        <v>0.03585491109821604</v>
       </c>
       <c r="F13">
-        <v>0.7526433804024464</v>
+        <v>0.7373465942457784</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2730087601340756</v>
+        <v>0.5393185945347199</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.505712644077278</v>
+        <v>1.933856369419487</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.097080713932883</v>
+        <v>5.700844356773757</v>
       </c>
       <c r="C14">
-        <v>0.3442025790885452</v>
+        <v>0.7180588962403078</v>
       </c>
       <c r="D14">
-        <v>0.03513174772825067</v>
+        <v>0.06837413934100312</v>
       </c>
       <c r="E14">
-        <v>0.09267615084283776</v>
+        <v>0.03582528557036646</v>
       </c>
       <c r="F14">
-        <v>0.7517482861240268</v>
+        <v>0.7264050357970717</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2705727150446222</v>
+        <v>0.5297024237608809</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.506205057842976</v>
+        <v>1.909066722084361</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.078261428250983</v>
+        <v>5.637343462266188</v>
       </c>
       <c r="C15">
-        <v>0.3421786575931662</v>
+        <v>0.711861416972738</v>
       </c>
       <c r="D15">
-        <v>0.03493690119242387</v>
+        <v>0.06778688772708819</v>
       </c>
       <c r="E15">
-        <v>0.09278677221847786</v>
+        <v>0.03581044960689361</v>
       </c>
       <c r="F15">
-        <v>0.7512132513722634</v>
+        <v>0.7197595940679946</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2690825347070529</v>
+        <v>0.52382554721585</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.506552183530147</v>
+        <v>1.894067995954288</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.970411808117262</v>
+        <v>5.274464218721675</v>
       </c>
       <c r="C16">
-        <v>0.3305707135031355</v>
+        <v>0.6764218483527031</v>
       </c>
       <c r="D16">
-        <v>0.03381941615469231</v>
+        <v>0.06442897412594562</v>
       </c>
       <c r="E16">
-        <v>0.09343960985674116</v>
+        <v>0.03577481454562381</v>
       </c>
       <c r="F16">
-        <v>0.7483497320056358</v>
+        <v>0.6825125443529885</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2605731139490786</v>
+        <v>0.4903417900408868</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.509237749174559</v>
+        <v>1.810859933636834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.904247587643624</v>
+        <v>5.052687553823205</v>
       </c>
       <c r="C17">
-        <v>0.3234412288711042</v>
+        <v>0.6547428720606661</v>
       </c>
       <c r="D17">
-        <v>0.03313309620906324</v>
+        <v>0.06237503034419944</v>
       </c>
       <c r="E17">
-        <v>0.09385696850501368</v>
+        <v>0.03579558633662927</v>
       </c>
       <c r="F17">
-        <v>0.7467734355434317</v>
+        <v>0.6603743904931747</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2553798542435288</v>
+        <v>0.4699637047709331</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.511505312961702</v>
+        <v>1.762155221314998</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.866191555075147</v>
+        <v>4.925408214633933</v>
       </c>
       <c r="C18">
-        <v>0.3193375514979664</v>
+        <v>0.6422944046412908</v>
       </c>
       <c r="D18">
-        <v>0.03273806580221361</v>
+        <v>0.06119565579078312</v>
       </c>
       <c r="E18">
-        <v>0.09410321523864162</v>
+        <v>0.03582264971722715</v>
       </c>
       <c r="F18">
-        <v>0.7459329384071367</v>
+        <v>0.6478897382791189</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2524027673105707</v>
+        <v>0.4582987930137392</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.513036911941953</v>
+        <v>1.73496053837809</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.85330647257706</v>
+        <v>4.882359333888473</v>
       </c>
       <c r="C19">
-        <v>0.3179476130713965</v>
+        <v>0.6380829316247514</v>
       </c>
       <c r="D19">
-        <v>0.03260426852084919</v>
+        <v>0.06079666358614588</v>
       </c>
       <c r="E19">
-        <v>0.09418765340573465</v>
+        <v>0.03583435830513082</v>
       </c>
       <c r="F19">
-        <v>0.7456597078140987</v>
+        <v>0.6437041632844682</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2513964855610311</v>
+        <v>0.4543585161814434</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.513594485067813</v>
+        <v>1.725889755402761</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.911290908205387</v>
+        <v>5.076266404334433</v>
       </c>
       <c r="C20">
-        <v>0.3242004859288272</v>
+        <v>0.6570484469660869</v>
       </c>
       <c r="D20">
-        <v>0.03320618504430684</v>
+        <v>0.06259346449235181</v>
       </c>
       <c r="E20">
-        <v>0.09381189890598129</v>
+        <v>0.03579179852905412</v>
       </c>
       <c r="F20">
-        <v>0.7469343858267337</v>
+        <v>0.662705017892705</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2559316574052843</v>
+        <v>0.4721271021154223</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.511240384834565</v>
+        <v>1.767254251279923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.106104982639408</v>
+        <v>5.731313810113818</v>
       </c>
       <c r="C21">
-        <v>0.345172930058169</v>
+        <v>0.7210321741341659</v>
       </c>
       <c r="D21">
-        <v>0.03522516573077183</v>
+        <v>0.06865588135590883</v>
       </c>
       <c r="E21">
-        <v>0.09262343956701002</v>
+        <v>0.03583329408662195</v>
       </c>
       <c r="F21">
-        <v>0.7520084377834166</v>
+        <v>0.7296069679466513</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2712878305881503</v>
+        <v>0.532524129660402</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.506050937310846</v>
+        <v>1.916309104744812</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.233413424287846</v>
+        <v>6.162522315327067</v>
       </c>
       <c r="C22">
-        <v>0.3588510172432109</v>
+        <v>0.7630796999951883</v>
       </c>
       <c r="D22">
-        <v>0.03654202706910326</v>
+        <v>0.07264057797333123</v>
       </c>
       <c r="E22">
-        <v>0.09190195369454557</v>
+        <v>0.03600707751691168</v>
       </c>
       <c r="F22">
-        <v>0.7559166693299488</v>
+        <v>0.7758282337592703</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.281412092657277</v>
+        <v>0.5725818778887657</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.504694788127921</v>
+        <v>2.021921402771568</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.165468388404918</v>
+        <v>5.932064324009673</v>
       </c>
       <c r="C23">
-        <v>0.3515534802873503</v>
+        <v>0.7406146981484483</v>
       </c>
       <c r="D23">
-        <v>0.03583944580750398</v>
+        <v>0.07051156182774321</v>
       </c>
       <c r="E23">
-        <v>0.09228196525754839</v>
+        <v>0.03590029343039802</v>
       </c>
       <c r="F23">
-        <v>0.7537764548151671</v>
+        <v>0.750916182529096</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2760005394595026</v>
+        <v>0.5511444127563436</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.505231820633924</v>
+        <v>1.964758101215722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.908106676857585</v>
+        <v>5.065605717774872</v>
       </c>
       <c r="C24">
-        <v>0.3238572408721154</v>
+        <v>0.6560060501216469</v>
       </c>
       <c r="D24">
-        <v>0.03317314299945195</v>
+        <v>0.06249470590145023</v>
       </c>
       <c r="E24">
-        <v>0.09383225524345384</v>
+        <v>0.03579346402701944</v>
       </c>
       <c r="F24">
-        <v>0.7468614154691693</v>
+        <v>0.6616505878119057</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2556821604459003</v>
+        <v>0.4711488731150695</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.511359448910099</v>
+        <v>1.76494647808758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.630502460955199</v>
+        <v>4.141434515710387</v>
       </c>
       <c r="C25">
-        <v>0.2938693232786136</v>
+        <v>0.5655115524906478</v>
       </c>
       <c r="D25">
-        <v>0.03028660745812317</v>
+        <v>0.05392146552892996</v>
       </c>
       <c r="E25">
-        <v>0.09574121442087424</v>
+        <v>0.03625024326310822</v>
       </c>
       <c r="F25">
-        <v>0.7419294698460845</v>
+        <v>0.5747314318317649</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2341456260844126</v>
+        <v>0.3869609925295094</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.526654732982195</v>
+        <v>1.580291686511572</v>
       </c>
     </row>
   </sheetData>
